--- a/acervo separado/Acervo_Objeto_de_adorno.xlsx
+++ b/acervo separado/Acervo_Objeto_de_adorno.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFFDF65-1152-475C-867C-B8839C771B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C50A99C-C889-41B1-9649-5F9C2B2ABF84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$22</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$22</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="143">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -122,9 +129,6 @@
     <t>Medallhão (cabeça de D.Maria II "?")</t>
   </si>
   <si>
-    <t>Marfim e veludo</t>
-  </si>
-  <si>
     <t>4,7 x 2,8 cm</t>
   </si>
   <si>
@@ -134,18 +138,12 @@
     <t>Estojo para relógio</t>
   </si>
   <si>
-    <t>Metal prateado</t>
-  </si>
-  <si>
     <t>5,3 x 11,9 cm</t>
   </si>
   <si>
     <t>1471</t>
   </si>
   <si>
-    <t>Metal dourado</t>
-  </si>
-  <si>
     <t>12,0 x 4,3 cm</t>
   </si>
   <si>
@@ -155,9 +153,6 @@
     <t>Mostrador de relógio</t>
   </si>
   <si>
-    <t>Esmalte</t>
-  </si>
-  <si>
     <t>4,2 cm</t>
   </si>
   <si>
@@ -170,9 +165,6 @@
     <t>Mostrador de relógio com pintura de espadachim</t>
   </si>
   <si>
-    <t>Esmalte/metal</t>
-  </si>
-  <si>
     <t>5,0 cm</t>
   </si>
   <si>
@@ -182,9 +174,6 @@
     <t>Relógio-broche</t>
   </si>
   <si>
-    <t>Ouro, esmalte, vidro e diamante</t>
-  </si>
-  <si>
     <t>5,0 x 2,2 cm</t>
   </si>
   <si>
@@ -194,9 +183,6 @@
     <t>Relógio com alça</t>
   </si>
   <si>
-    <t>Metal/esmalte</t>
-  </si>
-  <si>
     <t>8,3 x 5,8 cm</t>
   </si>
   <si>
@@ -206,9 +192,6 @@
     <t>1466</t>
   </si>
   <si>
-    <t>Prata e ouro</t>
-  </si>
-  <si>
     <t>8,7 x 6,3 cm</t>
   </si>
   <si>
@@ -218,9 +201,6 @@
     <t>Relógio com alça (algarismos romanos)</t>
   </si>
   <si>
-    <t>Prata, vidro e esmalte</t>
-  </si>
-  <si>
     <t>8,1 x 5,9 cm</t>
   </si>
   <si>
@@ -254,18 +234,12 @@
     <t>Estojo</t>
   </si>
   <si>
-    <t>Prata e ouro"?"</t>
-  </si>
-  <si>
     <t>1469</t>
   </si>
   <si>
     <t>Vidro para mostrador de relógio</t>
   </si>
   <si>
-    <t>Vidro e bronze dourado</t>
-  </si>
-  <si>
     <t>5,7 (d) cm</t>
   </si>
   <si>
@@ -278,9 +252,6 @@
     <t>Adorno feminino (meia lua)</t>
   </si>
   <si>
-    <t>Bordado/contas pretas</t>
-  </si>
-  <si>
     <t>5,5 x 6,0 cm</t>
   </si>
   <si>
@@ -302,9 +273,6 @@
     <t>Bracelete "?"</t>
   </si>
   <si>
-    <t>Pintura/tecido, veludo e pérolas</t>
-  </si>
-  <si>
     <t>4,5 x 8,5 cm</t>
   </si>
   <si>
@@ -314,9 +282,6 @@
     <t>Gargantilha</t>
   </si>
   <si>
-    <t>Cabelo trançado/metal dourado</t>
-  </si>
-  <si>
     <t>36,0 x 1,0 cm</t>
   </si>
   <si>
@@ -350,9 +315,6 @@
     <t>Porta-anel</t>
   </si>
   <si>
-    <t>Madeira/tecido</t>
-  </si>
-  <si>
     <t>4,1 x 3,1 cm</t>
   </si>
   <si>
@@ -456,6 +418,48 @@
   </si>
   <si>
     <t>4,1 cm</t>
+  </si>
+  <si>
+    <t>mattec_182</t>
+  </si>
+  <si>
+    <t>mattec_195</t>
+  </si>
+  <si>
+    <t>mattec_189</t>
+  </si>
+  <si>
+    <t>mattec_100</t>
+  </si>
+  <si>
+    <t>mattec_101</t>
+  </si>
+  <si>
+    <t>mattec_231</t>
+  </si>
+  <si>
+    <t>mattec_190</t>
+  </si>
+  <si>
+    <t>mattec_257</t>
+  </si>
+  <si>
+    <t>mattec_260</t>
+  </si>
+  <si>
+    <t>mattec_308</t>
+  </si>
+  <si>
+    <t>mattec_26</t>
+  </si>
+  <si>
+    <t>mattec_245</t>
+  </si>
+  <si>
+    <t>mattec_49</t>
+  </si>
+  <si>
+    <t>mattec_173</t>
   </si>
 </sst>
 </file>
@@ -851,7 +855,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="H2" sqref="H2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,13 +933,13 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="T1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -955,13 +959,13 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -982,10 +986,10 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -993,22 +997,22 @@
         <v>1472</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -1029,10 +1033,10 @@
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="S3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1040,7 +1044,7 @@
         <v>1471</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1049,13 +1053,13 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1079,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="S4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1087,7 +1091,7 @@
         <v>1467</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1096,13 +1100,13 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -1117,10 +1121,10 @@
         <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1128,7 +1132,7 @@
         <v>1468</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1137,13 +1141,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1164,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1172,7 +1176,7 @@
         <v>1476</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1181,13 +1185,13 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -1208,10 +1212,10 @@
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1219,7 +1223,7 @@
         <v>1470</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1228,13 +1232,13 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1249,13 +1253,13 @@
         <v>19</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="S8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1263,7 +1267,7 @@
         <v>1466</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1272,13 +1276,13 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -1299,10 +1303,10 @@
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1310,7 +1314,7 @@
         <v>1464</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1319,13 +1323,13 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1346,10 +1350,10 @@
         <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="S10" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1357,7 +1361,7 @@
         <v>1465</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1366,16 +1370,16 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -1390,13 +1394,13 @@
         <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="R11" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1404,7 +1408,7 @@
         <v>1463</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1413,16 +1417,16 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1437,13 +1441,13 @@
         <v>19</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="S12" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1451,7 +1455,7 @@
         <v>1463</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1460,16 +1464,16 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -1484,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="S13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1498,7 +1502,7 @@
         <v>1469</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1507,13 +1511,13 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1534,7 +1538,7 @@
         <v>23</v>
       </c>
       <c r="T14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1542,7 +1546,7 @@
         <v>1454</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1551,13 +1555,13 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1578,10 +1582,10 @@
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="S15" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1589,7 +1593,7 @@
         <v>1454</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1598,13 +1602,13 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1625,10 +1629,10 @@
         <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="S16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1636,7 +1640,7 @@
         <v>1454</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1645,13 +1649,13 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1672,10 +1676,10 @@
         <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="S17" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1683,7 +1687,7 @@
         <v>1457</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1692,13 +1696,13 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -1719,10 +1723,10 @@
         <v>23</v>
       </c>
       <c r="R18" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1730,7 +1734,7 @@
         <v>1455</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -1739,13 +1743,13 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -1766,10 +1770,10 @@
         <v>23</v>
       </c>
       <c r="R19" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="S19" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1777,7 +1781,7 @@
         <v>1456</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -1786,13 +1790,13 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -1813,10 +1817,10 @@
         <v>23</v>
       </c>
       <c r="R20" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1824,7 +1828,7 @@
         <v>1460</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -1833,13 +1837,13 @@
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -1860,10 +1864,10 @@
         <v>23</v>
       </c>
       <c r="R21" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="S21" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1871,7 +1875,7 @@
         <v>1381</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1880,16 +1884,16 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -1910,10 +1914,10 @@
         <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="S22" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
